--- a/3.출장지관리/2. 출장지 관리/map_data.xlsx
+++ b/3.출장지관리/2. 출장지 관리/map_data.xlsx
@@ -3616,7 +3616,11 @@
       <c r="F109" t="n">
         <v>127.164757</v>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">

--- a/3.출장지관리/2. 출장지 관리/map_data.xlsx
+++ b/3.출장지관리/2. 출장지 관리/map_data.xlsx
@@ -1814,7 +1814,11 @@
       <c r="F47" t="n">
         <v>127.2171542</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3558,7 +3562,11 @@
       <c r="F107" t="n">
         <v>127.0459005</v>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3616,11 +3624,7 @@
       <c r="F109" t="n">
         <v>127.164757</v>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4237,7 +4241,11 @@
       <c r="F130" t="n">
         <v>127.1910067</v>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
